--- a/data/trans_orig/IP07C03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C03-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50D2B2F8-F1DE-4224-824E-8D0CB1521E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25CEA0F9-C6F4-4D04-BCF7-F499FCD0983F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{5E1A883C-AA1C-4679-9F0C-4CA4FBEEA487}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{33E32FF4-6DAD-4136-BD8B-5E76EBD0415F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,10 +67,223 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>Poco</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>Muchísimo</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Moderadamente</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
   </si>
   <si>
     <t>5,53%</t>
@@ -100,9 +313,6 @@
     <t>7,27%</t>
   </si>
   <si>
-    <t>Mucho</t>
-  </si>
-  <si>
     <t>38,13%</t>
   </si>
   <si>
@@ -130,9 +340,6 @@
     <t>44,38%</t>
   </si>
   <si>
-    <t>Muchísimo</t>
-  </si>
-  <si>
     <t>54,1%</t>
   </si>
   <si>
@@ -160,153 +367,147 @@
     <t>60,89%</t>
   </si>
   <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>Poco</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
     <t>2,92%</t>
   </si>
   <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
     <t>7,16%</t>
   </si>
   <si>
@@ -382,205 +583,34 @@
     <t>53,73%</t>
   </si>
   <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
   </si>
   <si>
     <t>4,16%</t>
@@ -652,39 +682,198 @@
     <t>54,5%</t>
   </si>
   <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
     <t>Menores según frecuencia de sentirse satisfecho con su vida en 2012 (Tasa respuesta: 43,69%)</t>
   </si>
   <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
     <t>5,46%</t>
   </si>
   <si>
@@ -763,112 +952,136 @@
     <t>50,1%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
   </si>
   <si>
     <t>5,5%</t>
@@ -892,9 +1105,6 @@
     <t>5,1%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
     <t>8,69%</t>
   </si>
   <si>
@@ -949,214 +1159,31 @@
     <t>43,71%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
   </si>
   <si>
     <t>4,6%</t>
@@ -1240,36 +1267,213 @@
     <t>44,6%</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
     <t>Menores según frecuencia de sentirse satisfecho con su vida en 2015 (Tasa respuesta: 45,77%)</t>
   </si>
   <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
     <t>7,1%</t>
   </si>
   <si>
@@ -1345,127 +1549,118 @@
     <t>57,78%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
   </si>
   <si>
     <t>6,08%</t>
@@ -1543,199 +1738,37 @@
     <t>54,8%</t>
   </si>
   <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
   </si>
   <si>
     <t>5,19%</t>
@@ -1805,39 +1838,6 @@
   </si>
   <si>
     <t>56,32%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
   </si>
 </sst>
 </file>
@@ -2229,7 +2229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{557B33D5-0E8A-4DF5-B085-903B5C433ACE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDD2A07-2707-4303-814D-AFD649F5E6D0}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2347,10 +2347,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>5091</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2362,238 +2362,238 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>3731</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>14</v>
-      </c>
-      <c r="N4" s="7">
-        <v>8821</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>35119</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>39035</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>74154</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>49830</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>55762</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="M6" s="7">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>105592</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>5636</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>7763</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>13399</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D8" s="7">
-        <v>2064</v>
+        <v>6844</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I8" s="7">
-        <v>654</v>
+        <v>5579</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="N8" s="7">
-        <v>2717</v>
+        <v>12423</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,306 +2602,306 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>92104</v>
+        <v>12480</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H9" s="7">
-        <v>156</v>
+        <v>17</v>
       </c>
       <c r="I9" s="7">
-        <v>99181</v>
+        <v>13342</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="M9" s="7">
-        <v>296</v>
+        <v>33</v>
       </c>
       <c r="N9" s="7">
-        <v>191285</v>
+        <v>25822</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>3292</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>2611</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="M10" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>5903</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>21218</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>21105</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="M11" s="7">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>42324</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
+        <v>5</v>
+      </c>
+      <c r="D12" s="7">
+        <v>3292</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="7">
+        <v>4</v>
+      </c>
+      <c r="I12" s="7">
+        <v>2611</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M12" s="7">
+        <v>9</v>
+      </c>
+      <c r="N12" s="7">
+        <v>5903</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="7">
-        <v>30978</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="7">
-        <v>31</v>
-      </c>
-      <c r="I12" s="7">
-        <v>20444</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="M12" s="7">
-        <v>80</v>
-      </c>
-      <c r="N12" s="7">
-        <v>51423</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="P12" s="7" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>21218</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>21105</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>42324</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>30978</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>20444</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>51423</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2916,13 +2916,13 @@
         <v>55488</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H15" s="7">
         <v>66</v>
@@ -2931,13 +2931,13 @@
         <v>44160</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="M15" s="7">
         <v>151</v>
@@ -2946,270 +2946,270 @@
         <v>99649</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>2575</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="H16" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>6642</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="M16" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>9217</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>41948</v>
+        <v>2064</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="H17" s="7">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>32120</v>
+        <v>654</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="M17" s="7">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>74068</v>
+        <v>2717</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="D18" s="7">
-        <v>42349</v>
+        <v>5091</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="H18" s="7">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="I18" s="7">
-        <v>36532</v>
+        <v>3731</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="M18" s="7">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="N18" s="7">
-        <v>78881</v>
+        <v>8821</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>35119</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="I19" s="7">
-        <v>726</v>
+        <v>39035</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M19" s="7">
         <v>115</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1</v>
-      </c>
       <c r="N19" s="7">
-        <v>726</v>
+        <v>74154</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="D20" s="7">
-        <v>1257</v>
+        <v>49830</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="H20" s="7">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="I20" s="7">
-        <v>2289</v>
+        <v>55762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="M20" s="7">
-        <v>5</v>
+        <v>163</v>
       </c>
       <c r="N20" s="7">
-        <v>3546</v>
+        <v>105592</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,54 +3218,54 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D21" s="7">
-        <v>88129</v>
+        <v>92104</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H21" s="7">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="I21" s="7">
-        <v>78309</v>
+        <v>99181</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="M21" s="7">
-        <v>230</v>
+        <v>296</v>
       </c>
       <c r="N21" s="7">
-        <v>166438</v>
+        <v>191285</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3277,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3292,13 +3292,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -3307,217 +3307,217 @@
         <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>5636</v>
+        <v>719</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="H23" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>7763</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="M23" s="7">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>13399</v>
+        <v>719</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
+        <v>3</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1912</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H24" s="7">
+        <v>6</v>
+      </c>
+      <c r="I24" s="7">
+        <v>3650</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M24" s="7">
         <v>9</v>
       </c>
-      <c r="D24" s="7">
-        <v>6844</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H24" s="7">
-        <v>7</v>
-      </c>
-      <c r="I24" s="7">
-        <v>5579</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="M24" s="7">
-        <v>16</v>
-      </c>
       <c r="N24" s="7">
-        <v>12423</v>
+        <v>5562</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>29992</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>127</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>20344</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>50336</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>28271</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>31658</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="M26" s="7">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="N26" s="7">
-        <v>0</v>
+        <v>59929</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,303 +3526,303 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="D27" s="7">
-        <v>12480</v>
+        <v>60894</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H27" s="7">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="I27" s="7">
-        <v>13342</v>
+        <v>55653</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="M27" s="7">
-        <v>33</v>
+        <v>187</v>
       </c>
       <c r="N27" s="7">
-        <v>25822</v>
+        <v>116547</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>1912</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7">
+        <v>726</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M28" s="7">
+        <v>1</v>
+      </c>
+      <c r="N28" s="7">
+        <v>726</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H28" s="7">
-        <v>6</v>
-      </c>
-      <c r="I28" s="7">
-        <v>3650</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="M28" s="7">
-        <v>9</v>
-      </c>
-      <c r="N28" s="7">
-        <v>5562</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="D29" s="7">
-        <v>29992</v>
+        <v>1257</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>38</v>
+        <v>149</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>158</v>
+        <v>15</v>
       </c>
       <c r="H29" s="7">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="I29" s="7">
-        <v>20344</v>
+        <v>2289</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="M29" s="7">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="N29" s="7">
-        <v>50336</v>
+        <v>3546</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="D30" s="7">
-        <v>28271</v>
+        <v>2575</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>166</v>
+        <v>75</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="H30" s="7">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="I30" s="7">
-        <v>31658</v>
+        <v>6642</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="M30" s="7">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="N30" s="7">
-        <v>59929</v>
+        <v>9217</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>41948</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>41</v>
+        <v>163</v>
       </c>
       <c r="F31" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H31" s="7">
         <v>42</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
       <c r="I31" s="7">
-        <v>0</v>
+        <v>32120</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="M31" s="7">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="N31" s="7">
-        <v>0</v>
+        <v>74068</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C32" s="7">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="D32" s="7">
-        <v>719</v>
+        <v>42349</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H32" s="7">
+        <v>47</v>
+      </c>
+      <c r="I32" s="7">
+        <v>36532</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>108</v>
+      </c>
+      <c r="N32" s="7">
+        <v>78881</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="M32" s="7">
-        <v>1</v>
-      </c>
-      <c r="N32" s="7">
-        <v>719</v>
-      </c>
-      <c r="O32" s="7" t="s">
+      <c r="P32" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>180</v>
@@ -3834,49 +3834,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="D33" s="7">
-        <v>60894</v>
+        <v>88129</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H33" s="7">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="I33" s="7">
-        <v>55653</v>
+        <v>78309</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="M33" s="7">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="N33" s="7">
-        <v>116547</v>
+        <v>166438</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3887,244 +3887,244 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D34" s="7">
-        <v>12870</v>
+        <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="H34" s="7">
+        <v>1</v>
+      </c>
+      <c r="I34" s="7">
+        <v>726</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="H34" s="7">
-        <v>25</v>
-      </c>
-      <c r="I34" s="7">
-        <v>16633</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>1</v>
+      </c>
+      <c r="N34" s="7">
+        <v>726</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="P34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="M34" s="7">
-        <v>45</v>
-      </c>
-      <c r="N34" s="7">
-        <v>29503</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
-        <v>199</v>
+        <v>6</v>
       </c>
       <c r="D35" s="7">
-        <v>133913</v>
+        <v>4040</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H35" s="7">
+        <v>4</v>
+      </c>
+      <c r="I35" s="7">
+        <v>2943</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="M35" s="7">
+        <v>10</v>
+      </c>
+      <c r="N35" s="7">
+        <v>6983</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H35" s="7">
-        <v>179</v>
-      </c>
-      <c r="I35" s="7">
-        <v>120368</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="M35" s="7">
-        <v>378</v>
-      </c>
-      <c r="N35" s="7">
-        <v>254281</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="D36" s="7">
-        <v>158272</v>
+        <v>12870</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H36" s="7">
+        <v>25</v>
+      </c>
+      <c r="I36" s="7">
+        <v>16633</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>45</v>
+      </c>
+      <c r="N36" s="7">
+        <v>29503</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="H36" s="7">
-        <v>223</v>
-      </c>
-      <c r="I36" s="7">
-        <v>149975</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="M36" s="7">
-        <v>463</v>
-      </c>
-      <c r="N36" s="7">
-        <v>308248</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C37" s="7">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="D37" s="7">
-        <v>0</v>
+        <v>133913</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>42</v>
+        <v>201</v>
       </c>
       <c r="G37" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H37" s="7">
+        <v>179</v>
+      </c>
+      <c r="I37" s="7">
+        <v>120368</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="H37" s="7">
-        <v>1</v>
-      </c>
-      <c r="I37" s="7">
-        <v>726</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="M37" s="7">
+        <v>378</v>
+      </c>
+      <c r="N37" s="7">
+        <v>254281</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K37" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="M37" s="7">
-        <v>1</v>
-      </c>
-      <c r="N37" s="7">
-        <v>726</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>207</v>
-      </c>
       <c r="P37" s="7" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>208</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C38" s="7">
-        <v>6</v>
+        <v>240</v>
       </c>
       <c r="D38" s="7">
-        <v>4040</v>
+        <v>158272</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>15</v>
+        <v>206</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>117</v>
+        <v>207</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>18</v>
+        <v>208</v>
       </c>
       <c r="H38" s="7">
-        <v>4</v>
+        <v>223</v>
       </c>
       <c r="I38" s="7">
-        <v>2943</v>
+        <v>149975</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>210</v>
       </c>
       <c r="M38" s="7">
-        <v>10</v>
+        <v>463</v>
       </c>
       <c r="N38" s="7">
-        <v>6983</v>
+        <v>308248</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>211</v>
@@ -4148,13 +4148,13 @@
         <v>309095</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H39" s="7">
         <v>432</v>
@@ -4163,13 +4163,13 @@
         <v>290646</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="M39" s="7">
         <v>897</v>
@@ -4178,13 +4178,13 @@
         <v>599741</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -4205,7 +4205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A9B2F7-3166-4482-AA0F-67B99B60202A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D82183-A83F-457A-B98D-E37AC285E1AD}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4323,253 +4323,253 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>5194</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H4" s="7">
-        <v>6</v>
-      </c>
-      <c r="I4" s="7">
-        <v>3823</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M4" s="7">
-        <v>14</v>
-      </c>
-      <c r="N4" s="7">
-        <v>9017</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>45557</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>223</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>225</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>52780</v>
+        <v>760</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>227</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="M5" s="7">
-        <v>147</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>98337</v>
+        <v>760</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>230</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>44416</v>
+        <v>1001</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="H6" s="7">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>39988</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>235</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="M6" s="7">
-        <v>127</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>84404</v>
+        <v>1001</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>239</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>9909</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>41</v>
+        <v>225</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>42</v>
+        <v>226</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>6267</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>41</v>
+        <v>228</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>229</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>16176</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>41</v>
+        <v>231</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>232</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>50</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>3580</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>234</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>235</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H8" s="7">
+        <v>5</v>
+      </c>
+      <c r="I8" s="7">
+        <v>4248</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="M8" s="7">
+        <v>9</v>
+      </c>
+      <c r="N8" s="7">
+        <v>7829</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="H8" s="7">
-        <v>2</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1246</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="M8" s="7">
-        <v>2</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1246</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4578,306 +4578,306 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>95167</v>
+        <v>14490</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H9" s="7">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="I9" s="7">
-        <v>97837</v>
+        <v>11275</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="M9" s="7">
-        <v>290</v>
+        <v>29</v>
       </c>
       <c r="N9" s="7">
-        <v>193004</v>
+        <v>25765</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>1898</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>246</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>247</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>248</v>
+        <v>40</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>2978</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="M10" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>4876</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>252</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>253</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>30586</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>256</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>257</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>30933</v>
+        <v>736</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>259</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="M11" s="7">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>61519</v>
+        <v>736</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>198</v>
+        <v>246</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>261</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>262</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>25690</v>
+        <v>1898</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="H12" s="7">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="I12" s="7">
-        <v>17523</v>
+        <v>2978</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="M12" s="7">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="N12" s="7">
-        <v>43214</v>
+        <v>4876</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>30586</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>41</v>
+        <v>256</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>257</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>84</v>
+        <v>258</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>30933</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>41</v>
+        <v>259</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>42</v>
+        <v>260</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>61519</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>42</v>
+        <v>262</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>25690</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>41</v>
+        <v>264</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>42</v>
+        <v>265</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>84</v>
+        <v>266</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I14" s="7">
-        <v>736</v>
+        <v>17523</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>41</v>
+        <v>268</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="N14" s="7">
-        <v>736</v>
+        <v>43214</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>41</v>
+        <v>271</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>178</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4892,13 +4892,13 @@
         <v>58174</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H15" s="7">
         <v>73</v>
@@ -4907,13 +4907,13 @@
         <v>52171</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="M15" s="7">
         <v>158</v>
@@ -4922,270 +4922,270 @@
         <v>110345</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>4944</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>277</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>278</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="H16" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>3977</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>280</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>281</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N16" s="7">
-        <v>8921</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>284</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>285</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>45127</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>286</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="H17" s="7">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>53527</v>
+        <v>1246</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>289</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="M17" s="7">
-        <v>130</v>
+        <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>98653</v>
+        <v>1246</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>291</v>
+        <v>73</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>292</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D18" s="7">
-        <v>38193</v>
+        <v>5194</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="H18" s="7">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="I18" s="7">
-        <v>26108</v>
+        <v>3823</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>299</v>
+        <v>157</v>
       </c>
       <c r="M18" s="7">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="N18" s="7">
-        <v>64301</v>
+        <v>9017</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="D19" s="7">
-        <v>823</v>
+        <v>45557</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>41</v>
+        <v>287</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="I19" s="7">
-        <v>594</v>
+        <v>52780</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>41</v>
+        <v>290</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="M19" s="7">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="N19" s="7">
-        <v>1417</v>
+        <v>98337</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>41</v>
+        <v>293</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="D20" s="7">
-        <v>767</v>
+        <v>44416</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>41</v>
+        <v>296</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="I20" s="7">
-        <v>818</v>
+        <v>39988</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>41</v>
+        <v>299</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="M20" s="7">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="N20" s="7">
-        <v>1585</v>
+        <v>84404</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5194,72 +5194,72 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="D21" s="7">
-        <v>89854</v>
+        <v>95167</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H21" s="7">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="I21" s="7">
-        <v>85024</v>
+        <v>97837</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="M21" s="7">
-        <v>232</v>
+        <v>290</v>
       </c>
       <c r="N21" s="7">
-        <v>174877</v>
+        <v>193004</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>1001</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>315</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5268,232 +5268,232 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>1001</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>318</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D23" s="7">
-        <v>9909</v>
+        <v>3752</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="H23" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>6267</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>323</v>
+        <v>11</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>324</v>
+        <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="M23" s="7">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="N23" s="7">
-        <v>16176</v>
+        <v>3752</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>328</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" s="7">
-        <v>3580</v>
+        <v>2006</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
       </c>
       <c r="I24" s="7">
-        <v>4248</v>
+        <v>3303</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>62</v>
+        <v>315</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="M24" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N24" s="7">
-        <v>7829</v>
+        <v>5309</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="7">
         <v>40</v>
       </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>25106</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>41</v>
+        <v>320</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>42</v>
+        <v>321</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>127</v>
+        <v>322</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>37432</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>41</v>
+        <v>323</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>42</v>
+        <v>324</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>62538</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>41</v>
+        <v>326</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>42</v>
+        <v>327</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>38217</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>41</v>
+        <v>329</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>42</v>
+        <v>330</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>127</v>
+        <v>331</v>
       </c>
       <c r="H26" s="7">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I26" s="7">
-        <v>760</v>
+        <v>23757</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>41</v>
+        <v>333</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="M26" s="7">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="N26" s="7">
-        <v>760</v>
+        <v>61973</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>41</v>
+        <v>336</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5502,306 +5502,306 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="D27" s="7">
-        <v>14490</v>
+        <v>69081</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H27" s="7">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="I27" s="7">
-        <v>11275</v>
+        <v>64492</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="M27" s="7">
-        <v>29</v>
+        <v>208</v>
       </c>
       <c r="N27" s="7">
-        <v>25765</v>
+        <v>133573</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>2006</v>
+        <v>823</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>342</v>
+        <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>343</v>
+        <v>307</v>
       </c>
       <c r="H28" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I28" s="7">
-        <v>3303</v>
+        <v>594</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>345</v>
+        <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="M28" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N28" s="7">
-        <v>5309</v>
+        <v>1417</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>348</v>
+        <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>25106</v>
+        <v>767</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>351</v>
+        <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="H29" s="7">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="I29" s="7">
-        <v>37432</v>
+        <v>818</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>354</v>
+        <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="M29" s="7">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="N29" s="7">
-        <v>62538</v>
+        <v>1585</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>357</v>
+        <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D30" s="7">
-        <v>38217</v>
+        <v>4944</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="H30" s="7">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="I30" s="7">
-        <v>23757</v>
+        <v>3977</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="M30" s="7">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="N30" s="7">
-        <v>61973</v>
+        <v>8921</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>366</v>
+        <v>311</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>45127</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>42</v>
+        <v>356</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="H31" s="7">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="I31" s="7">
-        <v>0</v>
+        <v>53527</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>41</v>
+        <v>358</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>42</v>
+        <v>359</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="M31" s="7">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="N31" s="7">
-        <v>0</v>
+        <v>98653</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>41</v>
+        <v>361</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>42</v>
+        <v>362</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>303</v>
+        <v>363</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C32" s="7">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D32" s="7">
-        <v>3752</v>
+        <v>38193</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>304</v>
+        <v>364</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="H32" s="7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="I32" s="7">
-        <v>0</v>
+        <v>26108</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>41</v>
+        <v>367</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>42</v>
+        <v>368</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>369</v>
       </c>
       <c r="M32" s="7">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="N32" s="7">
-        <v>3752</v>
+        <v>64301</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5810,49 +5810,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>123</v>
+      </c>
+      <c r="D33" s="7">
+        <v>89854</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" s="7">
         <v>109</v>
       </c>
-      <c r="D33" s="7">
-        <v>69081</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H33" s="7">
-        <v>99</v>
-      </c>
       <c r="I33" s="7">
-        <v>64492</v>
+        <v>85024</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="M33" s="7">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="N33" s="7">
-        <v>133573</v>
+        <v>174877</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5863,253 +5863,253 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>15042</v>
+        <v>823</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1</v>
+      </c>
+      <c r="I34" s="7">
+        <v>594</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>2</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1417</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="H34" s="7">
-        <v>20</v>
-      </c>
-      <c r="I34" s="7">
-        <v>14081</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="M34" s="7">
-        <v>42</v>
-      </c>
-      <c r="N34" s="7">
-        <v>29123</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>379</v>
-      </c>
       <c r="P34" s="7" t="s">
-        <v>380</v>
+        <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>381</v>
+        <v>342</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
-        <v>224</v>
+        <v>7</v>
       </c>
       <c r="D35" s="7">
-        <v>156285</v>
+        <v>4519</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="H35" s="7">
-        <v>257</v>
+        <v>5</v>
       </c>
       <c r="I35" s="7">
-        <v>180939</v>
+        <v>3560</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="M35" s="7">
-        <v>481</v>
+        <v>12</v>
       </c>
       <c r="N35" s="7">
-        <v>337223</v>
+        <v>8079</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>388</v>
+        <v>275</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>389</v>
+        <v>77</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>390</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>221</v>
+        <v>22</v>
       </c>
       <c r="D36" s="7">
-        <v>150097</v>
+        <v>15042</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="H36" s="7">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="I36" s="7">
-        <v>111624</v>
+        <v>14081</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="M36" s="7">
-        <v>380</v>
+        <v>42</v>
       </c>
       <c r="N36" s="7">
-        <v>261720</v>
+        <v>29123</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C37" s="7">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="D37" s="7">
-        <v>823</v>
+        <v>156285</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>205</v>
+        <v>391</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>41</v>
+        <v>392</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>243</v>
+        <v>393</v>
       </c>
       <c r="H37" s="7">
-        <v>1</v>
+        <v>257</v>
       </c>
       <c r="I37" s="7">
-        <v>594</v>
+        <v>180939</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>41</v>
+        <v>395</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="M37" s="7">
-        <v>2</v>
+        <v>481</v>
       </c>
       <c r="N37" s="7">
-        <v>1417</v>
+        <v>337223</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>41</v>
+        <v>398</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>309</v>
+        <v>399</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C38" s="7">
-        <v>7</v>
+        <v>221</v>
       </c>
       <c r="D38" s="7">
-        <v>4519</v>
+        <v>150097</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="H38" s="7">
+        <v>159</v>
+      </c>
+      <c r="I38" s="7">
+        <v>111624</v>
+      </c>
+      <c r="J38" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="K38" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="H38" s="7">
-        <v>5</v>
-      </c>
-      <c r="I38" s="7">
-        <v>3560</v>
-      </c>
-      <c r="J38" s="7" t="s">
+      <c r="M38" s="7">
+        <v>380</v>
+      </c>
+      <c r="N38" s="7">
+        <v>261720</v>
+      </c>
+      <c r="O38" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="P38" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="L38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="M38" s="7">
-        <v>12</v>
-      </c>
-      <c r="N38" s="7">
-        <v>8079</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6124,13 +6124,13 @@
         <v>326766</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H39" s="7">
         <v>442</v>
@@ -6139,13 +6139,13 @@
         <v>310798</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="M39" s="7">
         <v>917</v>
@@ -6154,13 +6154,13 @@
         <v>637563</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -6181,7 +6181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87B9D86-5421-41FC-B79B-6C6229342CE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0508810F-F594-4CA2-9C27-1AD55D4A732A}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6299,253 +6299,253 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>7385</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1015</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1016</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="H4" s="7">
-        <v>9</v>
-      </c>
-      <c r="I4" s="7">
-        <v>5845</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="M4" s="7">
-        <v>20</v>
-      </c>
-      <c r="N4" s="7">
-        <v>13230</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>35557</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>417</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>418</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>419</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>45493</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>420</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>421</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="M5" s="7">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>81050</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>423</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>424</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>59876</v>
+        <v>562</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>427</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="H6" s="7">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>49332</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>429</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>430</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="M6" s="7">
-        <v>157</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>109208</v>
+        <v>562</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>433</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>575</v>
+        <v>3246</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>420</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>5191</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>41</v>
+        <v>422</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>423</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>424</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N7" s="7">
-        <v>575</v>
+        <v>8437</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>41</v>
+        <v>426</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D8" s="7">
-        <v>618</v>
+        <v>9399</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>429</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>188</v>
+        <v>430</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I8" s="7">
-        <v>2227</v>
+        <v>6516</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="N8" s="7">
-        <v>2845</v>
+        <v>15915</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>250</v>
+        <v>434</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6554,306 +6554,306 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>104011</v>
+        <v>13207</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H9" s="7">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="I9" s="7">
-        <v>102897</v>
+        <v>12723</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="M9" s="7">
-        <v>306</v>
+        <v>30</v>
       </c>
       <c r="N9" s="7">
-        <v>206908</v>
+        <v>25930</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>2198</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>445</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>446</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>2867</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>448</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>449</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="M10" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>5064</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>451</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>452</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>343</v>
+        <v>439</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>25183</v>
+        <v>721</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>453</v>
+        <v>183</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>454</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="H11" s="7">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>24939</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>456</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>457</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="M11" s="7">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>50122</v>
+        <v>721</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>459</v>
+        <v>312</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>460</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>29735</v>
+        <v>2198</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="H12" s="7">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="I12" s="7">
-        <v>28475</v>
+        <v>2867</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="M12" s="7">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="N12" s="7">
-        <v>58210</v>
+        <v>5064</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>468</v>
+        <v>448</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>470</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>25183</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>41</v>
+        <v>450</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>451</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>24939</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>41</v>
+        <v>453</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>42</v>
+        <v>454</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>50122</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>41</v>
+        <v>456</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>42</v>
+        <v>457</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D14" s="7">
-        <v>721</v>
+        <v>29735</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>206</v>
+        <v>459</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>41</v>
+        <v>460</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>28475</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>41</v>
+        <v>462</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>42</v>
+        <v>463</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="N14" s="7">
-        <v>721</v>
+        <v>58210</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>342</v>
+        <v>465</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>41</v>
+        <v>466</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6868,13 +6868,13 @@
         <v>57836</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H15" s="7">
         <v>80</v>
@@ -6883,13 +6883,13 @@
         <v>56281</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="M15" s="7">
         <v>155</v>
@@ -6898,270 +6898,270 @@
         <v>114117</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>6049</v>
+        <v>575</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>477</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="H16" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>7320</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>479</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>481</v>
+        <v>72</v>
       </c>
       <c r="M16" s="7">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>13369</v>
+        <v>575</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>483</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>44607</v>
+        <v>618</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>486</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>487</v>
+        <v>198</v>
       </c>
       <c r="H17" s="7">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>43841</v>
+        <v>2227</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="M17" s="7">
-        <v>118</v>
+        <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>88448</v>
+        <v>2845</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>491</v>
+        <v>251</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>398</v>
+        <v>476</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="D18" s="7">
-        <v>48154</v>
+        <v>7385</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>24</v>
+        <v>479</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="H18" s="7">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="I18" s="7">
-        <v>50730</v>
+        <v>5845</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>496</v>
+        <v>89</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="M18" s="7">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="N18" s="7">
-        <v>98884</v>
+        <v>13230</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>498</v>
+        <v>199</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>35557</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>41</v>
+        <v>485</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>42</v>
+        <v>486</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>274</v>
+        <v>487</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="I19" s="7">
-        <v>638</v>
+        <v>45493</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>208</v>
+        <v>488</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>41</v>
+        <v>489</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="N19" s="7">
-        <v>638</v>
+        <v>81050</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>41</v>
+        <v>492</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="D20" s="7">
-        <v>718</v>
+        <v>59876</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>41</v>
+        <v>495</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="I20" s="7">
-        <v>1355</v>
+        <v>49332</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>41</v>
+        <v>498</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="M20" s="7">
-        <v>3</v>
+        <v>157</v>
       </c>
       <c r="N20" s="7">
-        <v>2073</v>
+        <v>109208</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>176</v>
+        <v>500</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>64</v>
+        <v>502</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7170,54 +7170,54 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="D21" s="7">
-        <v>99528</v>
+        <v>104011</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H21" s="7">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="I21" s="7">
-        <v>103884</v>
+        <v>102897</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="M21" s="7">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="N21" s="7">
-        <v>203411</v>
+        <v>206908</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7226,16 +7226,16 @@
         <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>562</v>
+        <v>891</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7244,232 +7244,232 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>562</v>
+        <v>891</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>512</v>
+        <v>115</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>3246</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>514</v>
+        <v>11</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>515</v>
+        <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="H23" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>5191</v>
+        <v>524</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>518</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="M23" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>8437</v>
+        <v>524</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>521</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D24" s="7">
-        <v>9399</v>
+        <v>1935</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>523</v>
+        <v>242</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="H24" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I24" s="7">
-        <v>6516</v>
+        <v>3466</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>526</v>
+        <v>155</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>527</v>
+        <v>254</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="M24" s="7">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N24" s="7">
-        <v>15915</v>
+        <v>5401</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>531</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>24505</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="H25" s="7">
         <v>41</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="H25" s="7">
-        <v>1</v>
-      </c>
       <c r="I25" s="7">
-        <v>1015</v>
+        <v>25545</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>186</v>
+        <v>519</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>41</v>
+        <v>520</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="M25" s="7">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="N25" s="7">
-        <v>1016</v>
+        <v>50051</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>41</v>
+        <v>523</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>47289</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>41</v>
+        <v>525</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>127</v>
+        <v>527</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>40374</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>42</v>
+        <v>528</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="M26" s="7">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="N26" s="7">
-        <v>0</v>
+        <v>87663</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>41</v>
+        <v>530</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>42</v>
+        <v>531</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7478,306 +7478,306 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="D27" s="7">
-        <v>13207</v>
+        <v>74621</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H27" s="7">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="I27" s="7">
-        <v>12723</v>
+        <v>69909</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="M27" s="7">
-        <v>30</v>
+        <v>212</v>
       </c>
       <c r="N27" s="7">
-        <v>25930</v>
+        <v>144530</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>1935</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>272</v>
+        <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>536</v>
+        <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>537</v>
+        <v>244</v>
       </c>
       <c r="H28" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I28" s="7">
-        <v>3466</v>
+        <v>638</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>253</v>
+        <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="M28" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N28" s="7">
-        <v>5401</v>
+        <v>638</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>540</v>
+        <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>275</v>
+        <v>535</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>24505</v>
+        <v>718</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>542</v>
+        <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="H29" s="7">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="I29" s="7">
-        <v>25545</v>
+        <v>1355</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>545</v>
+        <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="M29" s="7">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="N29" s="7">
-        <v>50051</v>
+        <v>2073</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>547</v>
+        <v>112</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>549</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D30" s="7">
-        <v>47289</v>
+        <v>6049</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="H30" s="7">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="I30" s="7">
-        <v>40374</v>
+        <v>7320</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>173</v>
+        <v>544</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="M30" s="7">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="N30" s="7">
-        <v>87663</v>
+        <v>13369</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C31" s="7">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="D31" s="7">
-        <v>891</v>
+        <v>44607</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>41</v>
+        <v>551</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="H31" s="7">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="I31" s="7">
-        <v>0</v>
+        <v>43841</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>41</v>
+        <v>553</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>42</v>
+        <v>554</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="M31" s="7">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="N31" s="7">
-        <v>891</v>
+        <v>88448</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>179</v>
+        <v>556</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>41</v>
+        <v>407</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C32" s="7">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D32" s="7">
-        <v>0</v>
+        <v>48154</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>41</v>
+        <v>558</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="G32" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="H32" s="7">
+        <v>65</v>
+      </c>
+      <c r="I32" s="7">
+        <v>50730</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="H32" s="7">
-        <v>1</v>
-      </c>
-      <c r="I32" s="7">
-        <v>524</v>
-      </c>
-      <c r="J32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>129</v>
+      </c>
+      <c r="N32" s="7">
+        <v>98884</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="K32" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L32" s="7" t="s">
+      <c r="P32" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="M32" s="7">
-        <v>1</v>
-      </c>
-      <c r="N32" s="7">
-        <v>524</v>
-      </c>
-      <c r="O32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>565</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7786,49 +7786,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="D33" s="7">
-        <v>74621</v>
+        <v>99528</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H33" s="7">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="I33" s="7">
-        <v>69909</v>
+        <v>103884</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="M33" s="7">
-        <v>212</v>
+        <v>270</v>
       </c>
       <c r="N33" s="7">
-        <v>144530</v>
+        <v>203411</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7839,250 +7839,250 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D34" s="7">
-        <v>18129</v>
+        <v>1467</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>566</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="H34" s="7">
+        <v>2</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1653</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="H34" s="7">
-        <v>28</v>
-      </c>
-      <c r="I34" s="7">
-        <v>19498</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>4</v>
+      </c>
+      <c r="N34" s="7">
+        <v>3120</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="M34" s="7">
-        <v>55</v>
-      </c>
-      <c r="N34" s="7">
-        <v>37627</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>572</v>
-      </c>
       <c r="Q34" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
-        <v>184</v>
+        <v>3</v>
       </c>
       <c r="D35" s="7">
-        <v>133098</v>
+        <v>2056</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>233</v>
+        <v>472</v>
       </c>
       <c r="F35" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="G35" s="7" t="s">
-        <v>256</v>
-      </c>
       <c r="H35" s="7">
-        <v>212</v>
+        <v>6</v>
       </c>
       <c r="I35" s="7">
-        <v>145010</v>
+        <v>4105</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="M35" s="7">
+        <v>9</v>
+      </c>
+      <c r="N35" s="7">
+        <v>6162</v>
+      </c>
+      <c r="O35" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="L35" s="7" t="s">
+      <c r="P35" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>576</v>
-      </c>
-      <c r="M35" s="7">
-        <v>396</v>
-      </c>
-      <c r="N35" s="7">
-        <v>278108</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>264</v>
+        <v>27</v>
       </c>
       <c r="D36" s="7">
-        <v>194453</v>
+        <v>18129</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="H36" s="7">
+        <v>28</v>
+      </c>
+      <c r="I36" s="7">
+        <v>19498</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="K36" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="H36" s="7">
-        <v>245</v>
-      </c>
-      <c r="I36" s="7">
-        <v>175427</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>55</v>
+      </c>
+      <c r="N36" s="7">
+        <v>37627</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="K36" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="M36" s="7">
-        <v>509</v>
-      </c>
-      <c r="N36" s="7">
-        <v>369880</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>586</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>587</v>
-      </c>
       <c r="Q36" s="7" t="s">
-        <v>588</v>
+        <v>384</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C37" s="7">
-        <v>2</v>
+        <v>184</v>
       </c>
       <c r="D37" s="7">
-        <v>1467</v>
+        <v>133098</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H37" s="7">
+        <v>212</v>
+      </c>
+      <c r="I37" s="7">
+        <v>145010</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="M37" s="7">
+        <v>396</v>
+      </c>
+      <c r="N37" s="7">
+        <v>278108</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>590</v>
-      </c>
-      <c r="H37" s="7">
-        <v>2</v>
-      </c>
-      <c r="I37" s="7">
-        <v>1653</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="M37" s="7">
-        <v>4</v>
-      </c>
-      <c r="N37" s="7">
-        <v>3120</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C38" s="7">
-        <v>3</v>
+        <v>264</v>
       </c>
       <c r="D38" s="7">
-        <v>2056</v>
+        <v>194453</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>439</v>
+        <v>591</v>
       </c>
       <c r="F38" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="H38" s="7">
+        <v>245</v>
+      </c>
+      <c r="I38" s="7">
+        <v>175427</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="H38" s="7">
-        <v>6</v>
-      </c>
-      <c r="I38" s="7">
-        <v>4105</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="L38" s="7" t="s">
+      <c r="M38" s="7">
+        <v>509</v>
+      </c>
+      <c r="N38" s="7">
+        <v>369880</v>
+      </c>
+      <c r="O38" s="7" t="s">
         <v>597</v>
       </c>
-      <c r="M38" s="7">
-        <v>9</v>
-      </c>
-      <c r="N38" s="7">
-        <v>6162</v>
-      </c>
-      <c r="O38" s="7" t="s">
+      <c r="P38" s="7" t="s">
         <v>598</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>599</v>
@@ -8100,13 +8100,13 @@
         <v>349203</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H39" s="7">
         <v>493</v>
@@ -8115,13 +8115,13 @@
         <v>345694</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="M39" s="7">
         <v>973</v>
@@ -8130,13 +8130,13 @@
         <v>694897</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C03-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25CEA0F9-C6F4-4D04-BCF7-F499FCD0983F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{408F83D5-6F8C-4E0E-B896-40890B90EE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{33E32FF4-6DAD-4136-BD8B-5E76EBD0415F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CCF37FB0-1DB8-433F-BD5D-DB6952A7E03C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="606">
   <si>
     <t>Menores según frecuencia de sentirse satisfecho con su vida en 2007 (Tasa respuesta: 42,63%)</t>
   </si>
@@ -70,96 +70,174 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Muchísimo</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>Poco</t>
+  </si>
+  <si>
     <t>Nada</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>Poco</t>
-  </si>
-  <si>
-    <t>Moderadamente</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>Muchísimo</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
     <t>2,23%</t>
   </si>
   <si>
@@ -169,90 +247,111 @@
     <t>1,26%</t>
   </si>
   <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
     <t>1,36%</t>
   </si>
   <si>
@@ -262,1489 +361,1489 @@
     <t>0,65%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2012 (Tasa respuesta: 43,69%)</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2015 (Tasa respuesta: 45,77%)</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
   </si>
   <si>
     <t>3,52%</t>
   </si>
   <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
   </si>
   <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2012 (Tasa respuesta: 43,69%)</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
+    <t>0,31%</t>
   </si>
   <si>
     <t>1,89%</t>
   </si>
   <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
   </si>
   <si>
     <t>38,11%</t>
   </si>
   <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
   </si>
   <si>
     <t>2,47%</t>
   </si>
   <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2015 (Tasa respuesta: 45,77%)</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
   </si>
   <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
+    <t>1,48%</t>
   </si>
   <si>
     <t>1,73%</t>
@@ -1753,91 +1852,10 @@
     <t>0,45%</t>
   </si>
   <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
   </si>
 </sst>
 </file>
@@ -1848,7 +1866,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1944,39 +1962,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2028,7 +2046,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2139,13 +2157,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -2154,6 +2165,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2218,19 +2236,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDD2A07-2707-4303-814D-AFD649F5E6D0}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5518378-4120-40DA-9139-76C0D1F73E43}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2347,10 +2385,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>6844</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2362,91 +2400,91 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>5579</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>12423</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>5636</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>7763</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>13399</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -2455,13 +2493,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -2470,13 +2508,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -2485,115 +2523,115 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>5636</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>7763</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M7" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>13399</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C8" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>6844</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H8" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>5579</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>34</v>
       </c>
       <c r="M8" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>12423</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2655,106 +2693,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>30978</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>20444</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>51423</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>21218</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>21105</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>42324</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>5</v>
@@ -2763,13 +2801,13 @@
         <v>3292</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -2778,13 +2816,13 @@
         <v>2611</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -2793,115 +2831,115 @@
         <v>5903</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C13" s="7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>21218</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="H13" s="7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>21105</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>42324</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C14" s="7">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>30978</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H14" s="7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>20444</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M14" s="7">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>51423</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,112 +2995,112 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>49830</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>55762</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>105592</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="D17" s="7">
-        <v>2064</v>
+        <v>35119</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="I17" s="7">
-        <v>654</v>
+        <v>39035</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="M17" s="7">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="N17" s="7">
-        <v>2717</v>
+        <v>74154</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>8</v>
@@ -3071,13 +3109,13 @@
         <v>5091</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -3086,13 +3124,13 @@
         <v>3731</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -3101,115 +3139,115 @@
         <v>8821</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C19" s="7">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>35119</v>
+        <v>2064</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H19" s="7">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>39035</v>
+        <v>654</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M19" s="7">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="N19" s="7">
-        <v>74154</v>
+        <v>2717</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C20" s="7">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>49830</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H20" s="7">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>55762</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>105</v>
       </c>
       <c r="M20" s="7">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>105592</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,112 +3303,112 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>28271</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>110</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>31658</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>59929</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="D23" s="7">
-        <v>719</v>
+        <v>29992</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>20344</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="M23" s="7">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="N23" s="7">
-        <v>719</v>
+        <v>50336</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>3</v>
@@ -3379,13 +3417,13 @@
         <v>1912</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -3394,13 +3432,13 @@
         <v>3650</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -3409,115 +3447,115 @@
         <v>5562</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>29992</v>
+        <v>719</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="H25" s="7">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>20344</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="M25" s="7">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>50336</v>
+        <v>719</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C26" s="7">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>28271</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H26" s="7">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>31658</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="M26" s="7">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>59929</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,112 +3611,112 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>42349</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>144</v>
       </c>
       <c r="H28" s="7">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="I28" s="7">
-        <v>726</v>
+        <v>36532</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>145</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>146</v>
       </c>
       <c r="M28" s="7">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="N28" s="7">
-        <v>726</v>
+        <v>78881</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>147</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="D29" s="7">
-        <v>1257</v>
+        <v>41948</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="H29" s="7">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="I29" s="7">
-        <v>2289</v>
+        <v>32120</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M29" s="7">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="N29" s="7">
-        <v>3546</v>
+        <v>74068</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>4</v>
@@ -3687,13 +3725,13 @@
         <v>2575</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -3702,13 +3740,13 @@
         <v>6642</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="M30" s="7">
         <v>13</v>
@@ -3717,115 +3755,115 @@
         <v>9217</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C31" s="7">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="D31" s="7">
-        <v>41948</v>
+        <v>1257</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H31" s="7">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="I31" s="7">
-        <v>32120</v>
+        <v>2289</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M31" s="7">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="N31" s="7">
-        <v>74068</v>
+        <v>3546</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C32" s="7">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>42349</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>172</v>
+        <v>31</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>173</v>
+        <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H32" s="7">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>36532</v>
+        <v>726</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>176</v>
+        <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="M32" s="7">
+        <v>1</v>
+      </c>
+      <c r="N32" s="7">
+        <v>726</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="M32" s="7">
-        <v>108</v>
-      </c>
-      <c r="N32" s="7">
-        <v>78881</v>
-      </c>
-      <c r="O32" s="7" t="s">
+      <c r="P32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3887,106 +3925,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="D34" s="7">
-        <v>0</v>
+        <v>158272</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>11</v>
+        <v>179</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>181</v>
       </c>
       <c r="H34" s="7">
-        <v>1</v>
+        <v>223</v>
       </c>
       <c r="I34" s="7">
-        <v>726</v>
+        <v>149975</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>183</v>
       </c>
       <c r="M34" s="7">
-        <v>1</v>
+        <v>463</v>
       </c>
       <c r="N34" s="7">
-        <v>726</v>
+        <v>308248</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>184</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>11</v>
+        <v>185</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>6</v>
+        <v>199</v>
       </c>
       <c r="D35" s="7">
-        <v>4040</v>
+        <v>133913</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>89</v>
+        <v>189</v>
       </c>
       <c r="H35" s="7">
-        <v>4</v>
+        <v>179</v>
       </c>
       <c r="I35" s="7">
-        <v>2943</v>
+        <v>120368</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="M35" s="7">
-        <v>10</v>
+        <v>378</v>
       </c>
       <c r="N35" s="7">
-        <v>6983</v>
+        <v>254281</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>20</v>
@@ -3995,13 +4033,13 @@
         <v>12870</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="H36" s="7">
         <v>25</v>
@@ -4010,13 +4048,13 @@
         <v>16633</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="M36" s="7">
         <v>45</v>
@@ -4025,115 +4063,115 @@
         <v>29503</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C37" s="7">
-        <v>199</v>
+        <v>6</v>
       </c>
       <c r="D37" s="7">
-        <v>133913</v>
+        <v>4040</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>130</v>
+        <v>206</v>
       </c>
       <c r="H37" s="7">
-        <v>179</v>
+        <v>4</v>
       </c>
       <c r="I37" s="7">
-        <v>120368</v>
+        <v>2943</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="M37" s="7">
-        <v>378</v>
+        <v>10</v>
       </c>
       <c r="N37" s="7">
-        <v>254281</v>
+        <v>6983</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>101</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C38" s="7">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="D38" s="7">
-        <v>158272</v>
+        <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>206</v>
+        <v>31</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="G38" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H38" s="7">
+        <v>1</v>
+      </c>
+      <c r="I38" s="7">
+        <v>726</v>
+      </c>
+      <c r="J38" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="H38" s="7">
-        <v>223</v>
-      </c>
-      <c r="I38" s="7">
-        <v>149975</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="K38" s="7" t="s">
-        <v>209</v>
+        <v>31</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M38" s="7">
-        <v>463</v>
+        <v>1</v>
       </c>
       <c r="N38" s="7">
-        <v>308248</v>
+        <v>726</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>212</v>
+        <v>31</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4185,6 +4223,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -4205,8 +4248,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D82183-A83F-457A-B98D-E37AC285E1AD}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DD76C5-C30A-42CB-9C8B-1BFF7C482858}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4222,7 +4265,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4323,106 +4366,106 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>3580</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>219</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>221</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>4248</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>222</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>223</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>7829</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>225</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>226</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>9909</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>229</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I5" s="7">
-        <v>760</v>
+        <v>6267</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>232</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="N5" s="7">
-        <v>760</v>
+        <v>16176</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>235</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -4431,13 +4474,13 @@
         <v>1001</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4446,13 +4489,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -4461,115 +4504,115 @@
         <v>1001</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>9909</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>225</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>226</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>227</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>6267</v>
+        <v>760</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>229</v>
+        <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="M7" s="7">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>16176</v>
+        <v>760</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>232</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>3580</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>234</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>235</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>236</v>
+        <v>33</v>
       </c>
       <c r="H8" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>4248</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>237</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M8" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>7829</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>239</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>240</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,106 +4674,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>25690</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>247</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>40</v>
+        <v>249</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>17523</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>250</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>251</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>43214</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>253</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>254</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>30586</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>256</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>257</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>258</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="I11" s="7">
-        <v>736</v>
+        <v>30933</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>260</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="N11" s="7">
-        <v>736</v>
+        <v>61519</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>263</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>114</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>3</v>
@@ -4739,13 +4782,13 @@
         <v>1898</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>247</v>
+        <v>166</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -4754,13 +4797,13 @@
         <v>2978</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -4769,115 +4812,115 @@
         <v>4876</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>255</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C13" s="7">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>30586</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>256</v>
+        <v>31</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>257</v>
+        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>258</v>
+        <v>66</v>
       </c>
       <c r="H13" s="7">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>30933</v>
+        <v>736</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>260</v>
+        <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="M13" s="7">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>61519</v>
+        <v>736</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>208</v>
+        <v>274</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>262</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C14" s="7">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>25690</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>264</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>265</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>266</v>
+        <v>66</v>
       </c>
       <c r="H14" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>17523</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>267</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>268</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="M14" s="7">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>43214</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>270</v>
+        <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>271</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,112 +4976,112 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>44416</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>278</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>39988</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>280</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>281</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>84404</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>283</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>284</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>77</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>45557</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>286</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>12</v>
+        <v>287</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="I17" s="7">
-        <v>1246</v>
+        <v>52780</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>290</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="N17" s="7">
-        <v>1246</v>
+        <v>98337</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>73</v>
+        <v>292</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>293</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>277</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>8</v>
@@ -5047,13 +5090,13 @@
         <v>5194</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -5062,13 +5105,13 @@
         <v>3823</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>157</v>
+        <v>299</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -5077,115 +5120,115 @@
         <v>9017</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C19" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>45557</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>286</v>
+        <v>31</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>287</v>
+        <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="H19" s="7">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>52780</v>
+        <v>1246</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>290</v>
+        <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="M19" s="7">
-        <v>147</v>
+        <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>98337</v>
+        <v>1246</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>292</v>
+        <v>106</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>293</v>
+        <v>31</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>294</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C20" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>44416</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>295</v>
+        <v>31</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>296</v>
+        <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="H20" s="7">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>39988</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>298</v>
+        <v>31</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>299</v>
+        <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="M20" s="7">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>84404</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>301</v>
+        <v>31</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>302</v>
+        <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>303</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,112 +5284,112 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>38217</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>307</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>308</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>23757</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>310</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>61973</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>11</v>
+        <v>313</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>314</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D23" s="7">
-        <v>3752</v>
+        <v>25106</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>37432</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>11</v>
+        <v>319</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>12</v>
+        <v>320</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="M23" s="7">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="N23" s="7">
-        <v>3752</v>
+        <v>62538</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>275</v>
+        <v>323</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>324</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>3</v>
@@ -5355,13 +5398,13 @@
         <v>2006</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>312</v>
+        <v>138</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -5370,13 +5413,13 @@
         <v>3303</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="M24" s="7">
         <v>8</v>
@@ -5385,115 +5428,115 @@
         <v>5309</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="D25" s="7">
-        <v>25106</v>
+        <v>3752</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="H25" s="7">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>37432</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>323</v>
+        <v>31</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>324</v>
+        <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="M25" s="7">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="N25" s="7">
-        <v>62538</v>
+        <v>3752</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C26" s="7">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>38217</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>329</v>
+        <v>31</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>330</v>
+        <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="H26" s="7">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>23757</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>332</v>
+        <v>31</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>333</v>
+        <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M26" s="7">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>61973</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>335</v>
+        <v>31</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>336</v>
+        <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,7 +5578,7 @@
         <v>208</v>
       </c>
       <c r="N27" s="7">
-        <v>133573</v>
+        <v>133572</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>38</v>
@@ -5549,112 +5592,112 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="D28" s="7">
-        <v>823</v>
+        <v>38193</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>11</v>
+        <v>342</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="H28" s="7">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="I28" s="7">
-        <v>594</v>
+        <v>26108</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>11</v>
+        <v>345</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="M28" s="7">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="N28" s="7">
-        <v>1417</v>
+        <v>64301</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>11</v>
+        <v>348</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="D29" s="7">
-        <v>767</v>
+        <v>45127</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>11</v>
+        <v>351</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="H29" s="7">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="I29" s="7">
-        <v>818</v>
+        <v>53526</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>11</v>
+        <v>354</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="M29" s="7">
-        <v>2</v>
+        <v>130</v>
       </c>
       <c r="N29" s="7">
-        <v>1585</v>
+        <v>98653</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>11</v>
+        <v>357</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>7</v>
@@ -5663,13 +5706,13 @@
         <v>4944</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="H30" s="7">
         <v>5</v>
@@ -5678,13 +5721,13 @@
         <v>3977</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="M30" s="7">
         <v>12</v>
@@ -5693,115 +5736,115 @@
         <v>8921</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C31" s="7">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>45127</v>
+        <v>767</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>168</v>
+        <v>367</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>356</v>
+        <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="H31" s="7">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="I31" s="7">
-        <v>53527</v>
+        <v>818</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>359</v>
+        <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="M31" s="7">
-        <v>130</v>
+        <v>2</v>
       </c>
       <c r="N31" s="7">
-        <v>98653</v>
+        <v>1585</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>362</v>
+        <v>31</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C32" s="7">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>38193</v>
+        <v>823</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>365</v>
+        <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="H32" s="7">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>26108</v>
+        <v>594</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>368</v>
+        <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="M32" s="7">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="N32" s="7">
-        <v>64301</v>
+        <v>1417</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>371</v>
+        <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>372</v>
+        <v>244</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5828,7 +5871,7 @@
         <v>109</v>
       </c>
       <c r="I33" s="7">
-        <v>85024</v>
+        <v>85023</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>38</v>
@@ -5863,106 +5906,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>1</v>
+        <v>221</v>
       </c>
       <c r="D34" s="7">
-        <v>823</v>
+        <v>150097</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>182</v>
+        <v>377</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>11</v>
+        <v>378</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>275</v>
+        <v>379</v>
       </c>
       <c r="H34" s="7">
-        <v>1</v>
+        <v>159</v>
       </c>
       <c r="I34" s="7">
-        <v>594</v>
+        <v>111624</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>11</v>
+        <v>381</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="M34" s="7">
-        <v>2</v>
+        <v>380</v>
       </c>
       <c r="N34" s="7">
-        <v>1417</v>
+        <v>261720</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>11</v>
+        <v>384</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>342</v>
+        <v>385</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>7</v>
+        <v>224</v>
       </c>
       <c r="D35" s="7">
-        <v>4519</v>
+        <v>156285</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="H35" s="7">
-        <v>5</v>
+        <v>257</v>
       </c>
       <c r="I35" s="7">
-        <v>3560</v>
+        <v>180939</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="M35" s="7">
-        <v>12</v>
+        <v>481</v>
       </c>
       <c r="N35" s="7">
-        <v>8079</v>
+        <v>337223</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>275</v>
+        <v>392</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>77</v>
+        <v>393</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>44</v>
+        <v>394</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>22</v>
@@ -5971,13 +6014,13 @@
         <v>15042</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="H36" s="7">
         <v>20</v>
@@ -5986,13 +6029,13 @@
         <v>14081</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>385</v>
+        <v>174</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="M36" s="7">
         <v>42</v>
@@ -6001,115 +6044,115 @@
         <v>29123</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C37" s="7">
-        <v>224</v>
+        <v>7</v>
       </c>
       <c r="D37" s="7">
-        <v>156285</v>
+        <v>4519</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>391</v>
+        <v>268</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>392</v>
+        <v>211</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="H37" s="7">
-        <v>257</v>
+        <v>5</v>
       </c>
       <c r="I37" s="7">
-        <v>180939</v>
+        <v>3560</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>395</v>
+        <v>177</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="M37" s="7">
-        <v>481</v>
+        <v>12</v>
       </c>
       <c r="N37" s="7">
-        <v>337223</v>
+        <v>8079</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>397</v>
+        <v>304</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C38" s="7">
-        <v>221</v>
+        <v>1</v>
       </c>
       <c r="D38" s="7">
-        <v>150097</v>
+        <v>823</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>400</v>
+        <v>208</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>401</v>
+        <v>31</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>402</v>
+        <v>304</v>
       </c>
       <c r="H38" s="7">
-        <v>159</v>
+        <v>1</v>
       </c>
       <c r="I38" s="7">
-        <v>111624</v>
+        <v>594</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>404</v>
+        <v>31</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="M38" s="7">
-        <v>380</v>
+        <v>2</v>
       </c>
       <c r="N38" s="7">
-        <v>261720</v>
+        <v>1417</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>407</v>
+        <v>31</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6161,6 +6204,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -6181,8 +6229,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0508810F-F594-4CA2-9C27-1AD55D4A732A}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCFF4195-21BD-40F8-94AD-CB22071FF213}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6198,7 +6246,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6299,106 +6347,106 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>9399</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>413</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>414</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>415</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>1015</v>
+        <v>6516</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>196</v>
+        <v>416</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>417</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="N4" s="7">
-        <v>1016</v>
+        <v>15915</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>420</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>3246</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>422</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>423</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>424</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>5191</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>425</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>426</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>8437</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>428</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>429</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -6407,13 +6455,13 @@
         <v>562</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6422,13 +6470,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -6437,115 +6485,115 @@
         <v>562</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>3246</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>419</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>420</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>421</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>5191</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>422</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>423</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="M7" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>8437</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>425</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>426</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C8" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>9399</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>428</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>429</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>430</v>
+        <v>33</v>
       </c>
       <c r="H8" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>6516</v>
+        <v>1015</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>432</v>
+        <v>31</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="M8" s="7">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>15915</v>
+        <v>1016</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>435</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6607,106 +6655,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>29735</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>441</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>442</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>28475</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>444</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>445</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>58210</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>446</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D11" s="7">
-        <v>721</v>
+        <v>25183</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>183</v>
+        <v>448</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>449</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>24939</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>451</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>452</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="N11" s="7">
-        <v>721</v>
+        <v>50122</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>312</v>
+        <v>454</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>455</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>3</v>
@@ -6715,13 +6763,13 @@
         <v>2198</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>443</v>
+        <v>31</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -6730,13 +6778,13 @@
         <v>2867</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>446</v>
+        <v>306</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -6745,115 +6793,115 @@
         <v>5064</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>313</v>
+        <v>463</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C13" s="7">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>25183</v>
+        <v>721</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>451</v>
+        <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="H13" s="7">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>24939</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>453</v>
+        <v>31</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>454</v>
+        <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>455</v>
+        <v>360</v>
       </c>
       <c r="M13" s="7">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>50122</v>
+        <v>721</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>457</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C14" s="7">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>29735</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>459</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>460</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>461</v>
+        <v>197</v>
       </c>
       <c r="H14" s="7">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>28475</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>462</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>463</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>464</v>
+        <v>360</v>
       </c>
       <c r="M14" s="7">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>58210</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>465</v>
+        <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>466</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6909,112 +6957,112 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="D16" s="7">
-        <v>575</v>
+        <v>59876</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>470</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>49332</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>472</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>473</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>72</v>
+        <v>474</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="N16" s="7">
-        <v>575</v>
+        <v>109208</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>476</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="D17" s="7">
-        <v>618</v>
+        <v>35557</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>479</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>198</v>
+        <v>480</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="I17" s="7">
-        <v>2227</v>
+        <v>45493</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="M17" s="7">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="N17" s="7">
-        <v>2845</v>
+        <v>81050</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>251</v>
+        <v>484</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>11</v>
@@ -7023,13 +7071,13 @@
         <v>7385</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>479</v>
+        <v>91</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="H18" s="7">
         <v>9</v>
@@ -7038,13 +7086,13 @@
         <v>5845</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>89</v>
+        <v>295</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="M18" s="7">
         <v>20</v>
@@ -7053,115 +7101,115 @@
         <v>13230</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>199</v>
+        <v>491</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C19" s="7">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>35557</v>
+        <v>618</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>486</v>
+        <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="H19" s="7">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>45493</v>
+        <v>2227</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>488</v>
+        <v>133</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>489</v>
+        <v>216</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="M19" s="7">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="N19" s="7">
-        <v>81050</v>
+        <v>2845</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C20" s="7">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>59876</v>
+        <v>575</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>495</v>
+        <v>31</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="H20" s="7">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>49332</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>497</v>
+        <v>31</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>498</v>
+        <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>499</v>
+        <v>105</v>
       </c>
       <c r="M20" s="7">
-        <v>157</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>109208</v>
+        <v>575</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>501</v>
+        <v>31</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7217,112 +7265,112 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="D22" s="7">
-        <v>891</v>
+        <v>47289</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>11</v>
+        <v>505</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>40374</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>507</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>508</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="N22" s="7">
-        <v>891</v>
+        <v>87663</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>115</v>
+        <v>510</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>511</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>24505</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>11</v>
+        <v>513</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>12</v>
+        <v>514</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="I23" s="7">
-        <v>524</v>
+        <v>25545</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>11</v>
+        <v>517</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>509</v>
+        <v>112</v>
       </c>
       <c r="M23" s="7">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="N23" s="7">
-        <v>524</v>
+        <v>50051</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>11</v>
+        <v>519</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>3</v>
@@ -7331,13 +7379,13 @@
         <v>1935</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -7346,13 +7394,13 @@
         <v>3466</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>155</v>
+        <v>523</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>254</v>
+        <v>524</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="M24" s="7">
         <v>8</v>
@@ -7361,115 +7409,115 @@
         <v>5401</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>245</v>
+        <v>528</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>24505</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>516</v>
+        <v>31</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>517</v>
+        <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="H25" s="7">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>25545</v>
+        <v>524</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>520</v>
+        <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="M25" s="7">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>50051</v>
+        <v>524</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>523</v>
+        <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>524</v>
+        <v>363</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C26" s="7">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>47289</v>
+        <v>891</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>526</v>
+        <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="H26" s="7">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>40374</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>528</v>
+        <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="M26" s="7">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>87663</v>
+        <v>891</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>530</v>
+        <v>138</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>531</v>
+        <v>31</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>532</v>
+        <v>396</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7525,112 +7573,112 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>48154</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>11</v>
+        <v>536</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>537</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>244</v>
+        <v>538</v>
       </c>
       <c r="H28" s="7">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="I28" s="7">
-        <v>638</v>
+        <v>50730</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>185</v>
+        <v>539</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>11</v>
+        <v>540</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="M28" s="7">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="N28" s="7">
-        <v>638</v>
+        <v>98884</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>11</v>
+        <v>349</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="D29" s="7">
-        <v>718</v>
+        <v>44607</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>11</v>
+        <v>545</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="H29" s="7">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="I29" s="7">
-        <v>1355</v>
+        <v>43841</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>11</v>
+        <v>548</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="M29" s="7">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="N29" s="7">
-        <v>2073</v>
+        <v>88448</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>112</v>
+        <v>550</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>50</v>
+        <v>552</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>9</v>
@@ -7639,13 +7687,13 @@
         <v>6049</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="H30" s="7">
         <v>10</v>
@@ -7654,13 +7702,13 @@
         <v>7320</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="M30" s="7">
         <v>19</v>
@@ -7669,115 +7717,115 @@
         <v>13369</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C31" s="7">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>44607</v>
+        <v>718</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>551</v>
+        <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="H31" s="7">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="I31" s="7">
-        <v>43841</v>
+        <v>1355</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>553</v>
+        <v>298</v>
       </c>
       <c r="K31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="M31" s="7">
+        <v>3</v>
+      </c>
+      <c r="N31" s="7">
+        <v>2073</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>554</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="M31" s="7">
-        <v>118</v>
-      </c>
-      <c r="N31" s="7">
-        <v>88448</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C32" s="7">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>48154</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>558</v>
+        <v>31</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>559</v>
+        <v>272</v>
       </c>
       <c r="H32" s="7">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>50730</v>
+        <v>638</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>561</v>
+        <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>562</v>
+        <v>467</v>
       </c>
       <c r="M32" s="7">
-        <v>129</v>
+        <v>1</v>
       </c>
       <c r="N32" s="7">
-        <v>98884</v>
+        <v>638</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>564</v>
+        <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7839,106 +7887,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>2</v>
+        <v>264</v>
       </c>
       <c r="D34" s="7">
-        <v>1467</v>
+        <v>194453</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>11</v>
+        <v>570</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="H34" s="7">
-        <v>2</v>
+        <v>245</v>
       </c>
       <c r="I34" s="7">
-        <v>1653</v>
+        <v>175427</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>11</v>
+        <v>573</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="M34" s="7">
-        <v>4</v>
+        <v>509</v>
       </c>
       <c r="N34" s="7">
-        <v>3120</v>
+        <v>369880</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>374</v>
+        <v>577</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>3</v>
+        <v>184</v>
       </c>
       <c r="D35" s="7">
-        <v>2056</v>
+        <v>133098</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>472</v>
+        <v>578</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="H35" s="7">
-        <v>6</v>
+        <v>212</v>
       </c>
       <c r="I35" s="7">
-        <v>4105</v>
+        <v>145010</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>503</v>
+        <v>581</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="M35" s="7">
-        <v>9</v>
+        <v>396</v>
       </c>
       <c r="N35" s="7">
-        <v>6162</v>
+        <v>278108</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>147</v>
+        <v>585</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>27</v>
@@ -7947,13 +7995,13 @@
         <v>18129</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>579</v>
+        <v>96</v>
       </c>
       <c r="H36" s="7">
         <v>28</v>
@@ -7962,13 +8010,13 @@
         <v>19498</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="M36" s="7">
         <v>55</v>
@@ -7977,115 +8025,115 @@
         <v>37627</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>440</v>
+        <v>592</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>583</v>
+        <v>563</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>384</v>
+        <v>593</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C37" s="7">
-        <v>184</v>
+        <v>3</v>
       </c>
       <c r="D37" s="7">
-        <v>133098</v>
+        <v>2056</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>296</v>
+        <v>494</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>257</v>
+        <v>595</v>
       </c>
       <c r="H37" s="7">
-        <v>212</v>
+        <v>6</v>
       </c>
       <c r="I37" s="7">
-        <v>145010</v>
+        <v>4105</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>585</v>
+        <v>533</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="M37" s="7">
-        <v>396</v>
+        <v>9</v>
       </c>
       <c r="N37" s="7">
-        <v>278108</v>
+        <v>6162</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>589</v>
+        <v>177</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C38" s="7">
-        <v>264</v>
+        <v>2</v>
       </c>
       <c r="D38" s="7">
-        <v>194453</v>
+        <v>1467</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>592</v>
+        <v>31</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="H38" s="7">
-        <v>245</v>
+        <v>2</v>
       </c>
       <c r="I38" s="7">
-        <v>175427</v>
+        <v>1653</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>594</v>
+        <v>498</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>595</v>
+        <v>31</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="M38" s="7">
-        <v>509</v>
+        <v>4</v>
       </c>
       <c r="N38" s="7">
-        <v>369880</v>
+        <v>3120</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8137,6 +8185,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C03-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{408F83D5-6F8C-4E0E-B896-40890B90EE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28C99FFD-E558-49FC-89A2-3BD2BDF40B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CCF37FB0-1DB8-433F-BD5D-DB6952A7E03C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{77730240-0A27-4B9D-9D3D-1ABC57984AA5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="601">
   <si>
     <t>Menores según frecuencia de sentirse satisfecho con su vida en 2007 (Tasa respuesta: 42,63%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Muchísimo</t>
@@ -76,28 +76,28 @@
     <t>54,84%</t>
   </si>
   <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
   </si>
   <si>
     <t>41,82%</t>
   </si>
   <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
   </si>
   <si>
     <t>48,11%</t>
   </si>
   <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
   </si>
   <si>
     <t>Mucho</t>
@@ -106,1756 +106,1741 @@
     <t>45,16%</t>
   </si>
   <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
   </si>
   <si>
     <t>58,18%</t>
   </si>
   <si>
-    <t>34,22%</t>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>Poco</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2012 (Tasa respuesta: 43,69%)</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
   </si>
   <si>
     <t>80,16%</t>
   </si>
   <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>Moderadamente</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>Poco</t>
-  </si>
-  <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2016 (Tasa respuesta: 45,77%)</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
   </si>
   <si>
     <t>2,16%</t>
   </si>
   <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2012 (Tasa respuesta: 43,69%)</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
   </si>
   <si>
     <t>3,87%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
   </si>
   <si>
     <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2015 (Tasa respuesta: 45,77%)</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
   </si>
 </sst>
 </file>
@@ -2267,7 +2252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5518378-4120-40DA-9139-76C0D1F73E43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942D16ED-C662-4A5D-8ABC-CCF8FEFCB7A4}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2837,7 +2822,7 @@
         <v>65</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2858,7 +2843,7 @@
         <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2873,7 +2858,7 @@
         <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2888,7 +2873,7 @@
         <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,7 +2894,7 @@
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2924,7 +2909,7 @@
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2939,7 +2924,7 @@
         <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,7 +2980,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3007,13 +2992,13 @@
         <v>49830</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H16" s="7">
         <v>87</v>
@@ -3022,13 +3007,13 @@
         <v>55762</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M16" s="7">
         <v>163</v>
@@ -3037,13 +3022,13 @@
         <v>105592</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3058,13 +3043,13 @@
         <v>35119</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H17" s="7">
         <v>62</v>
@@ -3160,13 +3145,13 @@
         <v>2064</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -3175,13 +3160,13 @@
         <v>654</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -3190,13 +3175,13 @@
         <v>2717</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,7 +3202,7 @@
         <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3232,7 +3217,7 @@
         <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3247,7 +3232,7 @@
         <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,7 +3288,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3315,10 +3300,10 @@
         <v>28271</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>110</v>
@@ -3450,10 +3435,10 @@
         <v>132</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,13 +3453,13 @@
         <v>719</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -3489,7 +3474,7 @@
         <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -3498,13 +3483,13 @@
         <v>719</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,7 +3510,7 @@
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3540,7 +3525,7 @@
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -3611,7 +3596,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3623,13 +3608,13 @@
         <v>42349</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H28" s="7">
         <v>47</v>
@@ -3638,10 +3623,10 @@
         <v>36532</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>146</v>
@@ -3707,10 +3692,10 @@
         <v>156</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,13 +3710,13 @@
         <v>2575</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -3740,13 +3725,13 @@
         <v>6642</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M30" s="7">
         <v>13</v>
@@ -3755,13 +3740,13 @@
         <v>9217</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,13 +3761,13 @@
         <v>1257</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -3791,13 +3776,13 @@
         <v>2289</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M31" s="7">
         <v>5</v>
@@ -3806,13 +3791,13 @@
         <v>3546</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,7 +3818,7 @@
         <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -3842,13 +3827,13 @@
         <v>726</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -3857,13 +3842,13 @@
         <v>726</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3931,13 +3916,13 @@
         <v>158272</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H34" s="7">
         <v>223</v>
@@ -3949,10 +3934,10 @@
         <v>46</v>
       </c>
       <c r="K34" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M34" s="7">
         <v>463</v>
@@ -3961,13 +3946,13 @@
         <v>308248</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3982,13 +3967,13 @@
         <v>133913</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H35" s="7">
         <v>179</v>
@@ -3997,13 +3982,13 @@
         <v>120368</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M35" s="7">
         <v>378</v>
@@ -4012,13 +3997,13 @@
         <v>254281</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4033,13 +4018,13 @@
         <v>12870</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H36" s="7">
         <v>25</v>
@@ -4048,13 +4033,13 @@
         <v>16633</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M36" s="7">
         <v>45</v>
@@ -4063,13 +4048,13 @@
         <v>29503</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4084,13 +4069,13 @@
         <v>4040</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H37" s="7">
         <v>4</v>
@@ -4099,13 +4084,13 @@
         <v>2943</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M37" s="7">
         <v>10</v>
@@ -4114,13 +4099,13 @@
         <v>6983</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P37" s="7" t="s">
-        <v>211</v>
-      </c>
       <c r="Q37" s="7" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4141,7 +4126,7 @@
         <v>32</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -4150,13 +4135,13 @@
         <v>726</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -4165,13 +4150,13 @@
         <v>726</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4227,7 +4212,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -4248,7 +4233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DD76C5-C30A-42CB-9C8B-1BFF7C482858}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43FEF047-2139-4792-92C9-564FF7B2A1D0}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4265,7 +4250,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4372,13 +4357,13 @@
         <v>3580</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -4387,13 +4372,13 @@
         <v>4248</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -4402,13 +4387,13 @@
         <v>7829</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4423,13 +4408,13 @@
         <v>9909</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -4438,13 +4423,13 @@
         <v>6267</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M5" s="7">
         <v>18</v>
@@ -4453,13 +4438,13 @@
         <v>16176</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4474,13 +4459,13 @@
         <v>1001</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4495,7 +4480,7 @@
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -4504,13 +4489,13 @@
         <v>1001</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4540,13 +4525,13 @@
         <v>760</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -4555,13 +4540,13 @@
         <v>760</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4597,7 +4582,7 @@
         <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4612,7 +4597,7 @@
         <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4680,13 +4665,13 @@
         <v>25690</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -4695,13 +4680,13 @@
         <v>17523</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -4710,13 +4695,13 @@
         <v>43214</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,13 +4716,13 @@
         <v>30586</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H11" s="7">
         <v>43</v>
@@ -4746,13 +4731,13 @@
         <v>30933</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M11" s="7">
         <v>87</v>
@@ -4761,13 +4746,13 @@
         <v>61519</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,13 +4767,13 @@
         <v>1898</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>166</v>
+        <v>263</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -4797,13 +4782,13 @@
         <v>2978</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -4812,13 +4797,13 @@
         <v>4876</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4839,7 +4824,7 @@
         <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4890,7 +4875,7 @@
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4976,7 +4961,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4994,7 +4979,7 @@
         <v>279</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
@@ -5003,13 +4988,13 @@
         <v>39988</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M16" s="7">
         <v>127</v>
@@ -5018,13 +5003,13 @@
         <v>84404</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5039,13 +5024,13 @@
         <v>45557</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H17" s="7">
         <v>80</v>
@@ -5054,13 +5039,13 @@
         <v>52780</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M17" s="7">
         <v>147</v>
@@ -5069,13 +5054,13 @@
         <v>98337</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>144</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5090,13 +5075,13 @@
         <v>5194</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -5105,13 +5090,13 @@
         <v>3823</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>298</v>
+        <v>105</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -5120,13 +5105,13 @@
         <v>9017</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5147,7 +5132,7 @@
         <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -5156,13 +5141,13 @@
         <v>1246</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>305</v>
+        <v>195</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -5171,13 +5156,13 @@
         <v>1246</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>59</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5198,7 +5183,7 @@
         <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5213,7 +5198,7 @@
         <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5228,7 +5213,7 @@
         <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5284,7 +5269,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5296,13 +5281,13 @@
         <v>38217</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H22" s="7">
         <v>35</v>
@@ -5311,13 +5296,13 @@
         <v>23757</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M22" s="7">
         <v>95</v>
@@ -5326,13 +5311,13 @@
         <v>61973</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5347,13 +5332,13 @@
         <v>25106</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H23" s="7">
         <v>59</v>
@@ -5362,13 +5347,13 @@
         <v>37432</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M23" s="7">
         <v>99</v>
@@ -5377,13 +5362,13 @@
         <v>62538</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5398,13 +5383,13 @@
         <v>2006</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>138</v>
+        <v>327</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -5413,13 +5398,13 @@
         <v>3303</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M24" s="7">
         <v>8</v>
@@ -5428,13 +5413,13 @@
         <v>5309</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5449,13 +5434,13 @@
         <v>3752</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5470,7 +5455,7 @@
         <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -5479,13 +5464,13 @@
         <v>3752</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5506,7 +5491,7 @@
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5521,7 +5506,7 @@
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5536,7 +5521,7 @@
         <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5592,7 +5577,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5604,13 +5589,13 @@
         <v>38193</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="H28" s="7">
         <v>34</v>
@@ -5619,13 +5604,13 @@
         <v>26108</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M28" s="7">
         <v>86</v>
@@ -5634,13 +5619,13 @@
         <v>64301</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5655,28 +5640,28 @@
         <v>45127</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H29" s="7">
         <v>68</v>
       </c>
       <c r="I29" s="7">
-        <v>53526</v>
+        <v>53527</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="M29" s="7">
         <v>130</v>
@@ -5685,13 +5670,13 @@
         <v>98653</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5706,13 +5691,13 @@
         <v>4944</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>360</v>
+        <v>95</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H30" s="7">
         <v>5</v>
@@ -5721,13 +5706,13 @@
         <v>3977</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M30" s="7">
         <v>12</v>
@@ -5736,13 +5721,13 @@
         <v>8921</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>301</v>
+        <v>368</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5757,13 +5742,13 @@
         <v>767</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -5772,13 +5757,13 @@
         <v>818</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -5787,13 +5772,13 @@
         <v>1585</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>372</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5808,13 +5793,13 @@
         <v>823</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -5823,13 +5808,13 @@
         <v>594</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -5838,13 +5823,13 @@
         <v>1417</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>244</v>
+        <v>326</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5871,7 +5856,7 @@
         <v>109</v>
       </c>
       <c r="I33" s="7">
-        <v>85023</v>
+        <v>85024</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>38</v>
@@ -5912,13 +5897,13 @@
         <v>150097</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H34" s="7">
         <v>159</v>
@@ -5927,13 +5912,13 @@
         <v>111624</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M34" s="7">
         <v>380</v>
@@ -5942,13 +5927,13 @@
         <v>261720</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5963,13 +5948,13 @@
         <v>156285</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="H35" s="7">
         <v>257</v>
@@ -5978,13 +5963,13 @@
         <v>180939</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M35" s="7">
         <v>481</v>
@@ -5993,13 +5978,13 @@
         <v>337223</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6014,13 +5999,13 @@
         <v>15042</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H36" s="7">
         <v>20</v>
@@ -6029,13 +6014,13 @@
         <v>14081</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M36" s="7">
         <v>42</v>
@@ -6044,13 +6029,13 @@
         <v>29123</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6065,13 +6050,13 @@
         <v>4519</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>268</v>
+        <v>405</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>211</v>
+        <v>406</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="H37" s="7">
         <v>5</v>
@@ -6080,13 +6065,13 @@
         <v>3560</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>177</v>
+        <v>409</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="M37" s="7">
         <v>12</v>
@@ -6095,13 +6080,13 @@
         <v>8079</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>406</v>
+        <v>100</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>407</v>
+        <v>336</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6116,13 +6101,13 @@
         <v>823</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>304</v>
+        <v>411</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -6131,13 +6116,13 @@
         <v>594</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>409</v>
+        <v>372</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -6146,13 +6131,13 @@
         <v>1417</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>411</v>
+        <v>372</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6208,7 +6193,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -6229,7 +6214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCFF4195-21BD-40F8-94AD-CB22071FF213}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F9C1D0-BEF3-41E4-912E-6FCD7D9ABC43}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6246,7 +6231,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6353,13 +6338,13 @@
         <v>9399</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -6368,13 +6353,13 @@
         <v>6516</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>416</v>
+        <v>220</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -6383,13 +6368,13 @@
         <v>15915</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6404,13 +6389,13 @@
         <v>3246</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>424</v>
+        <v>220</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -6676,13 +6661,13 @@
         <v>28475</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="M10" s="7">
         <v>77</v>
@@ -6694,10 +6679,10 @@
         <v>446</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>123</v>
+        <v>447</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6712,13 +6697,13 @@
         <v>25183</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H11" s="7">
         <v>37</v>
@@ -6727,13 +6712,13 @@
         <v>24939</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M11" s="7">
         <v>70</v>
@@ -6742,13 +6727,13 @@
         <v>50122</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6766,7 +6751,7 @@
         <v>457</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>31</v>
+        <v>209</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>458</v>
@@ -6781,7 +6766,7 @@
         <v>459</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>460</v>
@@ -6814,13 +6799,13 @@
         <v>721</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>465</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6835,7 +6820,7 @@
         <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>360</v>
+        <v>465</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -6844,13 +6829,13 @@
         <v>721</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>466</v>
+        <v>327</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>467</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6871,7 +6856,7 @@
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>197</v>
+        <v>466</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6886,7 +6871,7 @@
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>360</v>
+        <v>465</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6901,7 +6886,7 @@
         <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6957,7 +6942,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6969,13 +6954,13 @@
         <v>59876</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>471</v>
       </c>
       <c r="H16" s="7">
         <v>73</v>
@@ -6984,13 +6969,13 @@
         <v>49332</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>474</v>
       </c>
       <c r="M16" s="7">
         <v>157</v>
@@ -6999,13 +6984,13 @@
         <v>109208</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7020,13 +7005,13 @@
         <v>35557</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>480</v>
       </c>
       <c r="H17" s="7">
         <v>71</v>
@@ -7035,13 +7020,13 @@
         <v>45493</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>483</v>
+        <v>155</v>
       </c>
       <c r="M17" s="7">
         <v>124</v>
@@ -7050,13 +7035,13 @@
         <v>81050</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7071,13 +7056,13 @@
         <v>7385</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H18" s="7">
         <v>9</v>
@@ -7086,13 +7071,13 @@
         <v>5845</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>295</v>
+        <v>487</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="M18" s="7">
         <v>20</v>
@@ -7101,13 +7086,13 @@
         <v>13230</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7122,13 +7107,13 @@
         <v>618</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -7137,10 +7122,10 @@
         <v>2227</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>133</v>
+        <v>494</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>216</v>
+        <v>495</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>496</v>
@@ -7179,7 +7164,7 @@
         <v>31</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>501</v>
+        <v>339</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7194,7 +7179,7 @@
         <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7203,13 +7188,13 @@
         <v>575</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7265,7 +7250,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7277,13 +7262,13 @@
         <v>47289</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>506</v>
       </c>
       <c r="H22" s="7">
         <v>61</v>
@@ -7292,13 +7277,13 @@
         <v>40374</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="M22" s="7">
         <v>128</v>
@@ -7307,13 +7292,13 @@
         <v>87663</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7328,13 +7313,13 @@
         <v>24505</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>515</v>
       </c>
       <c r="H23" s="7">
         <v>41</v>
@@ -7343,13 +7328,13 @@
         <v>25545</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M23" s="7">
         <v>74</v>
@@ -7385,7 +7370,7 @@
         <v>521</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>522</v>
+        <v>424</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -7394,13 +7379,13 @@
         <v>3466</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>525</v>
       </c>
       <c r="M24" s="7">
         <v>8</v>
@@ -7409,13 +7394,13 @@
         <v>5401</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7436,7 +7421,7 @@
         <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>529</v>
+        <v>365</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -7445,13 +7430,13 @@
         <v>524</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>531</v>
+        <v>490</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -7460,13 +7445,13 @@
         <v>524</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>363</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7481,13 +7466,13 @@
         <v>891</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -7502,7 +7487,7 @@
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -7511,13 +7496,13 @@
         <v>891</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>396</v>
+        <v>533</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7573,7 +7558,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7585,13 +7570,13 @@
         <v>48154</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>538</v>
+        <v>74</v>
       </c>
       <c r="H28" s="7">
         <v>65</v>
@@ -7600,13 +7585,13 @@
         <v>50730</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="M28" s="7">
         <v>129</v>
@@ -7615,13 +7600,13 @@
         <v>98884</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>349</v>
+        <v>540</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7636,13 +7621,13 @@
         <v>44607</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>546</v>
       </c>
       <c r="H29" s="7">
         <v>57</v>
@@ -7651,13 +7636,13 @@
         <v>43841</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>549</v>
       </c>
       <c r="M29" s="7">
         <v>118</v>
@@ -7666,13 +7651,13 @@
         <v>88448</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7687,13 +7672,13 @@
         <v>6049</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>554</v>
+        <v>205</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H30" s="7">
         <v>10</v>
@@ -7702,13 +7687,13 @@
         <v>7320</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="M30" s="7">
         <v>19</v>
@@ -7717,13 +7702,13 @@
         <v>13369</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7738,13 +7723,13 @@
         <v>718</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -7753,13 +7738,13 @@
         <v>1355</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>298</v>
+        <v>561</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="M31" s="7">
         <v>3</v>
@@ -7771,10 +7756,10 @@
         <v>127</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>554</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7804,13 +7789,13 @@
         <v>638</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>566</v>
+        <v>210</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>467</v>
+        <v>564</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -7819,13 +7804,13 @@
         <v>638</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7893,13 +7878,13 @@
         <v>194453</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>571</v>
       </c>
       <c r="H34" s="7">
         <v>245</v>
@@ -7908,13 +7893,13 @@
         <v>175427</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>573</v>
+        <v>314</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="M34" s="7">
         <v>509</v>
@@ -7923,13 +7908,13 @@
         <v>369880</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7944,13 +7929,13 @@
         <v>133098</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>580</v>
+        <v>344</v>
       </c>
       <c r="H35" s="7">
         <v>212</v>
@@ -7959,13 +7944,13 @@
         <v>145010</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>581</v>
+        <v>234</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>583</v>
+        <v>43</v>
       </c>
       <c r="M35" s="7">
         <v>396</v>
@@ -7974,13 +7959,13 @@
         <v>278108</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7995,13 +7980,13 @@
         <v>18129</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>96</v>
+        <v>583</v>
       </c>
       <c r="H36" s="7">
         <v>28</v>
@@ -8010,13 +7995,13 @@
         <v>19498</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="M36" s="7">
         <v>55</v>
@@ -8025,13 +8010,13 @@
         <v>37627</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>563</v>
+        <v>588</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8046,13 +8031,13 @@
         <v>2056</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="H37" s="7">
         <v>6</v>
@@ -8061,13 +8046,13 @@
         <v>4105</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="M37" s="7">
         <v>9</v>
@@ -8076,13 +8061,13 @@
         <v>6162</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>177</v>
+        <v>595</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8097,13 +8082,13 @@
         <v>1467</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -8112,13 +8097,13 @@
         <v>1653</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>498</v>
+        <v>598</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>602</v>
+        <v>333</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
@@ -8127,13 +8112,13 @@
         <v>3120</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>603</v>
+        <v>204</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8189,7 +8174,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
